--- a/odm_quote_forecast/anchored_results/NPI Pega Quote Avgs.xlsx
+++ b/odm_quote_forecast/anchored_results/NPI Pega Quote Avgs.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Pegatron Forecast" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Site</t>
+          <t>ODM</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -458,6 +458,21 @@
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Avg. of: BOM+MVA Cost</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Build Status</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>WW Start</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>WW End</t>
         </is>
       </c>
     </row>
@@ -486,6 +501,17 @@
       <c r="F2" t="n">
         <v>37.7</v>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I2" t="n">
+        <v>202253</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -512,6 +538,17 @@
       <c r="F3" t="n">
         <v>37.7</v>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I3" t="n">
+        <v>202253</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,6 +575,17 @@
       <c r="F4" t="n">
         <v>37.7</v>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I4" t="n">
+        <v>202253</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,6 +612,17 @@
       <c r="F5" t="n">
         <v>53.78</v>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I5" t="n">
+        <v>202253</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -590,6 +649,17 @@
       <c r="F6" t="n">
         <v>53.02</v>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I6" t="n">
+        <v>202253</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -612,6 +682,17 @@
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I7" t="n">
+        <v>202253</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -634,6 +715,17 @@
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I8" t="n">
+        <v>202253</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -656,6 +748,17 @@
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I9" t="n">
+        <v>202253</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -678,6 +781,17 @@
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I10" t="n">
+        <v>202253</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -704,6 +818,17 @@
       <c r="F11" t="n">
         <v>45.39</v>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I11" t="n">
+        <v>202253</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -730,6 +855,17 @@
       <c r="F12" t="n">
         <v>121.16</v>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I12" t="n">
+        <v>202253</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -756,6 +892,17 @@
       <c r="F13" t="n">
         <v>120.72</v>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I13" t="n">
+        <v>202253</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -782,6 +929,17 @@
       <c r="F14" t="n">
         <v>45.39</v>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I14" t="n">
+        <v>202253</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -808,6 +966,17 @@
       <c r="F15" t="n">
         <v>120.88</v>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I15" t="n">
+        <v>202253</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -834,6 +1003,17 @@
       <c r="F16" t="n">
         <v>45.35</v>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I16" t="n">
+        <v>202253</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -860,6 +1040,17 @@
       <c r="F17" t="n">
         <v>45.41</v>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I17" t="n">
+        <v>202253</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -886,6 +1077,17 @@
       <c r="F18" t="n">
         <v>52.96</v>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I18" t="n">
+        <v>202253</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -912,6 +1114,17 @@
       <c r="F19" t="n">
         <v>53.02</v>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I19" t="n">
+        <v>202253</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -938,6 +1151,17 @@
       <c r="F20" t="n">
         <v>5.79</v>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I20" t="n">
+        <v>202253</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -964,6 +1188,17 @@
       <c r="F21" t="n">
         <v>5.79</v>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I21" t="n">
+        <v>202253</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -990,6 +1225,17 @@
       <c r="F22" t="n">
         <v>5.79</v>
       </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I22" t="n">
+        <v>202253</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1016,6 +1262,17 @@
       <c r="F23" t="n">
         <v>5.642222222222221</v>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I23" t="n">
+        <v>202253</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1042,6 +1299,17 @@
       <c r="F24" t="n">
         <v>5.642222222222221</v>
       </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I24" t="n">
+        <v>202253</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1067,6 +1335,17 @@
       </c>
       <c r="F25" t="n">
         <v>5.653999999999999</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>202241</v>
+      </c>
+      <c r="I25" t="n">
+        <v>202253</v>
       </c>
     </row>
   </sheetData>
